--- a/data_preprocessing.xlsx
+++ b/data_preprocessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\부산대\datamining_project\DataMining_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31991AAC-865B-4604-B93E-8C6C03C51C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFABF84-5482-4705-804F-960AE14C555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,80 +52,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>금정구</t>
+  </si>
+  <si>
+    <t>기장군</t>
+  </si>
+  <si>
+    <t>남구</t>
+  </si>
+  <si>
+    <t>동구</t>
+  </si>
+  <si>
+    <t>동래구</t>
+  </si>
+  <si>
+    <t>부산진구</t>
+  </si>
+  <si>
+    <t>북구</t>
+  </si>
+  <si>
+    <t>사상구</t>
+  </si>
+  <si>
+    <t>사하구</t>
+  </si>
+  <si>
+    <t>서구</t>
+  </si>
+  <si>
+    <t>수영구</t>
+  </si>
+  <si>
+    <t>연제구</t>
+  </si>
+  <si>
+    <t>영도구</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>해운대구</t>
+  </si>
+  <si>
+    <t>스트레스 인지율 : (평소 일상생활 중 스트레스를 “대단히 많이 느낀다” 또는 “많이 느끼는 편이다”에 응답한 사람의 수 / 조사대상 응답자 수) × 100</t>
+  </si>
+  <si>
+    <t>우울감 경험률 : (최근 1년 동안 연속적으로 2주 이상 일상생활에 지장이 있을 정도의 슬픔이나 절망감을 느낀 적이 있는 사람의 수 / 조사대상 응답자 수) × 100</t>
+  </si>
+  <si>
+    <t>스트레스로 인한 정신상담률 : (스트레스로 전문가의 상담(의료기관, 전문상담기관, 보건소 등)을 받아 본 적이 있는 사람의 수 / 평소 일상생활 중 스트레스를 “대단히 많이 느낀다” 또는 “많이 느끼는 편이다”에 응답한 사람의 수) × 100</t>
+  </si>
+  <si>
+    <t>우울증상으로 인한 정신상담률 : (우울증상으로 전문가의 상담(의료기관, 전문상담기관, 보건소 등)을 받아 본 적이 있는 사람의 수 / 최근 1년 동안 연속적으로 2주 이상 일상생활에 지장이 있을 정도로 슬프거나 절망감을 느낀 적이 있는 사람의 수) × 100</t>
+  </si>
+  <si>
+    <t>우울증상유병률 : (우울증선별도구(PHQ-9) 점수 총합이 10점 이상인 사람의 수 / 조사대상 응답자 수) × 100</t>
+  </si>
+  <si>
+    <t>자살생각률 : (최근 1년 동안 죽고 싶다는 생각을 해 본 적이 있는 사람의 수 / 조사대상 응답자 수) × 100</t>
+  </si>
+  <si>
+    <t>주관적 건강인지율 : (주관적 건강수준을 “매우 좋음” 또는 “좋음”에 응답한 사람의 수 / 조사대상 응답자 수) × 100</t>
+  </si>
+  <si>
+    <t>행복감지수 : 행복지수의 총합 / 조사대상 응답자 수</t>
+  </si>
+  <si>
+    <t>행복감지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서구</t>
-  </si>
-  <si>
-    <t>금정구</t>
-  </si>
-  <si>
-    <t>기장군</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>동구</t>
-  </si>
-  <si>
-    <t>동래구</t>
-  </si>
-  <si>
-    <t>부산진구</t>
-  </si>
-  <si>
-    <t>북구</t>
-  </si>
-  <si>
-    <t>사상구</t>
-  </si>
-  <si>
-    <t>사하구</t>
-  </si>
-  <si>
-    <t>서구</t>
-  </si>
-  <si>
-    <t>수영구</t>
-  </si>
-  <si>
-    <t>연제구</t>
-  </si>
-  <si>
-    <t>영도구</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>해운대구</t>
-  </si>
-  <si>
-    <t>스트레스 인지율 : (평소 일상생활 중 스트레스를 “대단히 많이 느낀다” 또는 “많이 느끼는 편이다”에 응답한 사람의 수 / 조사대상 응답자 수) × 100</t>
-  </si>
-  <si>
-    <t>우울감 경험률 : (최근 1년 동안 연속적으로 2주 이상 일상생활에 지장이 있을 정도의 슬픔이나 절망감을 느낀 적이 있는 사람의 수 / 조사대상 응답자 수) × 100</t>
-  </si>
-  <si>
-    <t>스트레스로 인한 정신상담률 : (스트레스로 전문가의 상담(의료기관, 전문상담기관, 보건소 등)을 받아 본 적이 있는 사람의 수 / 평소 일상생활 중 스트레스를 “대단히 많이 느낀다” 또는 “많이 느끼는 편이다”에 응답한 사람의 수) × 100</t>
-  </si>
-  <si>
-    <t>우울증상으로 인한 정신상담률 : (우울증상으로 전문가의 상담(의료기관, 전문상담기관, 보건소 등)을 받아 본 적이 있는 사람의 수 / 최근 1년 동안 연속적으로 2주 이상 일상생활에 지장이 있을 정도로 슬프거나 절망감을 느낀 적이 있는 사람의 수) × 100</t>
-  </si>
-  <si>
-    <t>우울증상유병률 : (우울증선별도구(PHQ-9) 점수 총합이 10점 이상인 사람의 수 / 조사대상 응답자 수) × 100</t>
-  </si>
-  <si>
-    <t>자살생각률 : (최근 1년 동안 죽고 싶다는 생각을 해 본 적이 있는 사람의 수 / 조사대상 응답자 수) × 100</t>
-  </si>
-  <si>
-    <t>주관적 건강인지율 : (주관적 건강수준을 “매우 좋음” 또는 “좋음”에 응답한 사람의 수 / 조사대상 응답자 수) × 100</t>
-  </si>
-  <si>
-    <t>행복감지수 : 행복지수의 총합 / 조사대상 응답자 수</t>
   </si>
 </sst>
 </file>
@@ -171,16 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,7 +495,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,12 +528,12 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>11.3</v>
@@ -567,8 +558,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>13.4</v>
@@ -593,8 +584,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>17.7</v>
@@ -619,8 +610,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>12.9</v>
@@ -645,8 +636,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>12.4</v>
@@ -671,8 +662,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>13.3</v>
@@ -697,8 +688,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>11.1</v>
@@ -723,8 +714,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
+      <c r="A9" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>11.2</v>
@@ -749,8 +740,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>16.2</v>
@@ -775,8 +766,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>20.9</v>
@@ -801,8 +792,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>13.1</v>
@@ -813,7 +804,7 @@
       <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>10.4</v>
       </c>
       <c r="F12" s="1">
@@ -827,8 +818,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>13.9</v>
@@ -853,8 +844,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
+      <c r="A14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>11.2</v>
@@ -879,8 +870,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
+      <c r="A15" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>15.9</v>
@@ -905,8 +896,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>15.3</v>
@@ -931,8 +922,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
+      <c r="A17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>17.2</v>
@@ -973,43 +964,43 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing.xlsx
+++ b/data_preprocessing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\부산대\datamining_project\DataMining_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFABF84-5482-4705-804F-960AE14C555A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D224D-A6A6-426A-81DE-07038E211271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>스트레스인지율</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,7 +124,11 @@
     <t>행복감지수 : 행복지수의 총합 / 조사대상 응답자 수</t>
   </si>
   <si>
-    <t>행복감지수</t>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구밀도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +149,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -171,11 +183,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47047854-05B7-4BE9-947E-22EB57DBFF42}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +523,7 @@
     <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +545,11 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -556,8 +574,11 @@
       <c r="H2" s="1">
         <v>46.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -582,8 +603,11 @@
       <c r="H3" s="1">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -608,8 +632,11 @@
       <c r="H4" s="1">
         <v>47.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,8 +661,11 @@
       <c r="H5" s="1">
         <v>39.69</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1">
+        <v>9778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -660,8 +690,11 @@
       <c r="H6" s="1">
         <v>43.56</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -686,8 +719,11 @@
       <c r="H7" s="1">
         <v>46.24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <v>16503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,8 +748,11 @@
       <c r="H8" s="1">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1">
+        <v>12088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -738,8 +777,11 @@
       <c r="H9" s="1">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,8 +806,11 @@
       <c r="H10" s="1">
         <v>37.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -790,8 +835,11 @@
       <c r="H11" s="1">
         <v>43.56</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>7338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -816,8 +864,11 @@
       <c r="H12" s="1">
         <v>40.96</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -842,8 +893,11 @@
       <c r="H13" s="1">
         <v>42.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1">
+        <v>17281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -868,8 +922,11 @@
       <c r="H14" s="1">
         <v>39.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -894,8 +951,11 @@
       <c r="H15" s="1">
         <v>40.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -920,8 +980,11 @@
       <c r="H16" s="1">
         <v>43.56</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>14809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -945,6 +1008,9 @@
       </c>
       <c r="H17" s="1">
         <v>40.96</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7601</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing.xlsx
+++ b/data_preprocessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\부산대\datamining_project\DataMining_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D224D-A6A6-426A-81DE-07038E211271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808186B1-7A76-46F3-861B-C3769A874C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
+    <workbookView xWindow="1440" yWindow="705" windowWidth="12585" windowHeight="15060" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인구밀도</t>
+    <t>65세이상고령자수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47047854-05B7-4BE9-947E-22EB57DBFF42}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,8 +577,8 @@
       <c r="H2" s="1">
         <v>46.24</v>
       </c>
-      <c r="I2" s="1">
-        <v>817</v>
+      <c r="I2" s="3">
+        <v>17845</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -603,8 +606,8 @@
       <c r="H3" s="1">
         <v>42.25</v>
       </c>
-      <c r="I3" s="1">
-        <v>3458</v>
+      <c r="I3" s="3">
+        <v>50401</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -632,8 +635,8 @@
       <c r="H4" s="1">
         <v>47.61</v>
       </c>
-      <c r="I4" s="1">
-        <v>828</v>
+      <c r="I4" s="3">
+        <v>29357</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -661,8 +664,8 @@
       <c r="H5" s="1">
         <v>39.69</v>
       </c>
-      <c r="I5" s="1">
-        <v>9778</v>
+      <c r="I5" s="3">
+        <v>55386</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -690,8 +693,8 @@
       <c r="H6" s="1">
         <v>43.56</v>
       </c>
-      <c r="I6" s="1">
-        <v>8977</v>
+      <c r="I6" s="3">
+        <v>23760</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -719,8 +722,8 @@
       <c r="H7" s="1">
         <v>46.24</v>
       </c>
-      <c r="I7" s="1">
-        <v>16503</v>
+      <c r="I7" s="3">
+        <v>51829</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -748,8 +751,8 @@
       <c r="H8" s="1">
         <v>42.25</v>
       </c>
-      <c r="I8" s="1">
-        <v>12088</v>
+      <c r="I8" s="3">
+        <v>72339</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -777,8 +780,8 @@
       <c r="H9" s="1">
         <v>42.25</v>
       </c>
-      <c r="I9" s="1">
-        <v>7136</v>
+      <c r="I9" s="3">
+        <v>52506</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -806,8 +809,8 @@
       <c r="H10" s="1">
         <v>37.21</v>
       </c>
-      <c r="I10" s="1">
-        <v>5777</v>
+      <c r="I10" s="3">
+        <v>40878</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -835,8 +838,8 @@
       <c r="H11" s="1">
         <v>43.56</v>
       </c>
-      <c r="I11" s="1">
-        <v>7338</v>
+      <c r="I11" s="3">
+        <v>62278</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -864,8 +867,8 @@
       <c r="H12" s="1">
         <v>40.96</v>
       </c>
-      <c r="I12" s="1">
-        <v>7699</v>
+      <c r="I12" s="3">
+        <v>27529</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -893,8 +896,8 @@
       <c r="H13" s="1">
         <v>42.25</v>
       </c>
-      <c r="I13" s="1">
-        <v>17281</v>
+      <c r="I13" s="3">
+        <v>38971</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -922,8 +925,8 @@
       <c r="H14" s="1">
         <v>39.69</v>
       </c>
-      <c r="I14" s="1">
-        <v>16901</v>
+      <c r="I14" s="3">
+        <v>42313</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -951,8 +954,8 @@
       <c r="H15" s="1">
         <v>40.96</v>
       </c>
-      <c r="I15" s="1">
-        <v>7764</v>
+      <c r="I15" s="3">
+        <v>31981</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -980,8 +983,8 @@
       <c r="H16" s="1">
         <v>43.56</v>
       </c>
-      <c r="I16" s="1">
-        <v>14809</v>
+      <c r="I16" s="3">
+        <v>11206</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1009,8 +1012,8 @@
       <c r="H17" s="1">
         <v>40.96</v>
       </c>
-      <c r="I17" s="1">
-        <v>7601</v>
+      <c r="I17" s="3">
+        <v>73306</v>
       </c>
     </row>
   </sheetData>

--- a/data_preprocessing.xlsx
+++ b/data_preprocessing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\부산대\datamining_project\DataMining_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808186B1-7A76-46F3-861B-C3769A874C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EB68A0-30E6-4218-A80B-C14E191C7725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="705" windowWidth="12585" windowHeight="15060" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{78480C24-4B18-41C6-BF53-4059E566151A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47047854-05B7-4BE9-947E-22EB57DBFF42}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,6 +524,7 @@
     <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1026,7 +1027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799EFC92-569D-4AE6-818F-5A27EB416515}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
